--- a/Functional Diversity/trait_matrix.xlsx
+++ b/Functional Diversity/trait_matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>species</t>
   </si>
@@ -40,9 +40,6 @@
     <t>insects</t>
   </si>
   <si>
-    <t>spiders</t>
-  </si>
-  <si>
     <t>crabs</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t>snails</t>
   </si>
   <si>
-    <t>shellfish</t>
+    <t>molluscs</t>
   </si>
   <si>
     <t>medusa</t>
@@ -203,6 +200,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -224,12 +222,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,15 +283,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,173 +312,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3349" ySplit="525" topLeftCell="A1" activePane="bottomRight" state="split"/>
+      <pane xSplit="3364" ySplit="630" topLeftCell="B1" activePane="bottomRight" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.21938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.92857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.07142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.37755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.68877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.46938775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.780612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.71428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.87755102040816"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.11224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.87755102040816"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.4234693877551"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.07142857142857"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.5102040816327"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.75"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.8469387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>609.5</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -488,41 +473,47 @@
         <v>57.15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>217.5</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -532,12 +523,12 @@
         <v>108.1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -549,7 +540,7 @@
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -558,53 +549,65 @@
       <c r="O4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="0" t="n">
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>381.5</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>70</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>1</v>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>158</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -614,21 +617,24 @@
         <v>41.4</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
@@ -638,110 +644,404 @@
         <v>1</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Diversity/trait_matrix.xlsx
+++ b/Functional Diversity/trait_matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="132">
   <si>
     <t xml:space="preserve">order</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vanellus chilensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollandia rolland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterna vittata</t>
   </si>
 </sst>
 </file>
@@ -466,13 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -511,7 +517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,6 +535,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,42 +631,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:80"/>
+  <dimension ref="1:82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7912" ySplit="1410" topLeftCell="N28" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
-      <selection pane="bottomRight" activeCell="N28" activeCellId="0" sqref="N28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8947" ySplit="1680" topLeftCell="A70" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+      <selection pane="bottomRight" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.58673469387755"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.31632653061224"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="22" min="18" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +855,9 @@
       <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="AA3" s="0" t="n">
         <v>1</v>
       </c>
@@ -1138,7 +1148,9 @@
         <v>1</v>
       </c>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="W9" s="0" t="n">
         <v>1</v>
       </c>
@@ -1183,7 +1195,9 @@
       <c r="R10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" s="0" t="n">
         <v>1</v>
       </c>
@@ -1266,7 +1280,9 @@
         <v>1</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="X12" s="0" t="n">
         <v>1</v>
       </c>
@@ -1326,7 +1342,9 @@
       <c r="R13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" s="5"/>
       <c r="W13" s="0" t="n">
         <v>1</v>
@@ -1393,7 +1411,9 @@
       <c r="R14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" s="0" t="n">
         <v>1</v>
       </c>
@@ -2512,20 +2532,20 @@
       <c r="G39" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
       <c r="X39" s="0" t="n">
         <v>1</v>
       </c>
@@ -2596,7 +2616,7 @@
       <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="8" t="n">
         <v>609.5</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -2652,7 +2672,7 @@
       <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="8" t="n">
         <v>217.5</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -3072,7 +3092,7 @@
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="8" t="n">
         <v>75.5</v>
       </c>
       <c r="E51" s="0" t="n">
@@ -3484,7 +3504,7 @@
       <c r="C61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="7" t="n">
+      <c r="D61" s="8" t="n">
         <v>158</v>
       </c>
       <c r="E61" s="0" t="n">
@@ -4022,7 +4042,7 @@
       <c r="C74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="0" t="n">
         <v>142</v>
       </c>
@@ -4287,7 +4307,7 @@
       <c r="C80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="7" t="n">
+      <c r="D80" s="8" t="n">
         <v>381.5</v>
       </c>
       <c r="E80" s="0" t="n">
@@ -4321,6 +4341,92 @@
         <v>1</v>
       </c>
       <c r="AB80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="0" t="n">
         <v>1</v>
       </c>
     </row>
